--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_8_31.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_8_31.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>26407.02752970279</v>
+        <v>5254998.478410857</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>26407.02752970279</v>
+        <v>5254998.478410857</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>47171.05752487296</v>
+        <v>3705913.641874705</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>47171.05752487296</v>
+        <v>3705913.641874705</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1495013929.686924</v>
+        <v>58481694.74965577</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>12066.70925758262</v>
+        <v>1303732.469372625</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>23649.89777016387</v>
+        <v>2531625.083696905</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>35233.0862827451</v>
+        <v>3759517.698021186</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>49346.50471701282</v>
+        <v>4953223.929440381</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>63260.99305027041</v>
+        <v>6107343.070758566</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>77175.48138352798</v>
+        <v>7261462.212076749</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>91694.44845512601</v>
+        <v>8436056.462999994</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>106110.5255287087</v>
+        <v>9590175.604318174</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>121746.6766363036</v>
+        <v>10616410.20070273</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>136162.7537098863</v>
+        <v>11770529.34202091</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>150578.830783469</v>
+        <v>12924648.48333909</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>162886.6204471898</v>
+        <v>14084328.70456363</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>175393.2807149866</v>
+        <v>15283584.1759993</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>189294.6830006015</v>
+        <v>16347194.25534385</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>204791.643890369</v>
+        <v>17048922.7495814</v>
       </c>
     </row>
   </sheetData>
